--- a/algoritmit/kotitehtavat/kt4.xlsx
+++ b/algoritmit/kotitehtavat/kt4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K8397\lewrep\algoritmit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\K8397\lewrep\algoritmit\kotitehtavat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="12270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="12270" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>Antti, Lauri, Maija, Sirpa, Siiri, Matti, Mikko, Leena, Oiva, Onni, Liisa, Paula, Pauli</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,24 +60,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,11 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -103,6 +99,4744 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{B28DAACF-65C7-4B93-9D64-7B08A9B8F458}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{085B85D6-F892-40BE-ACD7-E95BB2954C17}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{24040A8C-59D0-4D39-B69C-924A21E11F4B}" type="parTrans" cxnId="{5C670DA4-1301-4194-BE93-4D4A713FDF21}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B03AF964-AB2B-4861-9307-2B6E33281784}" type="sibTrans" cxnId="{5C670DA4-1301-4194-BE93-4D4A713FDF21}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4ED4E661-5C68-41F1-A317-51BA2A690180}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C3A2E70A-918A-41C9-96D7-DC263A5F457C}" type="parTrans" cxnId="{997E15B4-1E03-4C08-812F-16F37C024E6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B96387F1-9AC8-46AA-95F6-B1D2297B4993}" type="sibTrans" cxnId="{997E15B4-1E03-4C08-812F-16F37C024E6E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8570E018-295C-426C-9EAD-CB2BE35BBA58}" type="parTrans" cxnId="{5DC46A8F-7928-4EFF-BA28-445A5260ECC7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B839B9F9-E36C-4D72-AC23-ECE656AF61D4}" type="sibTrans" cxnId="{5DC46A8F-7928-4EFF-BA28-445A5260ECC7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{35D1A082-DC91-4CB3-8A2D-98F1E00DC914}" type="parTrans" cxnId="{D05CBC34-C3C2-4737-A422-382A9A8B8669}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DD707DE0-262B-4762-855A-0720094AF235}" type="sibTrans" cxnId="{D05CBC34-C3C2-4737-A422-382A9A8B8669}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2259D3F2-8469-4E27-9CE8-988214998CD4}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{25433F91-029A-441B-B6CC-93D4E0BFB8C5}" type="parTrans" cxnId="{05336AC4-F3CB-4580-BBB2-494F86AE6F4A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BC8396E4-A9DD-4707-97F4-C6E3573C524C}" type="sibTrans" cxnId="{05336AC4-F3CB-4580-BBB2-494F86AE6F4A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{17D7F13B-3C0B-4E46-B887-24D3743BB146}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8225E952-52E5-412D-9515-E0F4859239EC}" type="parTrans" cxnId="{DF7D88CD-F4C0-439F-AA1B-A5E921719B12}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{516B2EDE-7047-401A-A6A2-73A69FCC9465}" type="sibTrans" cxnId="{DF7D88CD-F4C0-439F-AA1B-A5E921719B12}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{83A971E5-9575-4602-9725-3DD30C326F7C}" type="parTrans" cxnId="{EC6D4137-BE84-4F64-B93B-0C9A322A0DFD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{06C3A996-86B2-491B-8D98-3E6F9085A930}" type="sibTrans" cxnId="{EC6D4137-BE84-4F64-B93B-0C9A322A0DFD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F455BBAF-AA2E-42D5-A55A-14B9A46B8EC2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>H</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A1BB5850-8462-4110-9690-886AF9F58656}" type="parTrans" cxnId="{3E3B44EE-64EA-4472-A85E-6AEA9BA9CA7F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F1447AC3-3B32-4782-BDFA-C361FC2E2356}" type="sibTrans" cxnId="{3E3B44EE-64EA-4472-A85E-6AEA9BA9CA7F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2B4F5A84-F98E-4F79-A6AE-E64BEC5FA09D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>I</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6AD2AE32-B519-4067-900C-A19BB33B3E27}" type="parTrans" cxnId="{1C5E282E-B901-445A-89A1-183FE5841C33}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E1B85290-B4C7-416F-AEF0-3AC33014B567}" type="sibTrans" cxnId="{1C5E282E-B901-445A-89A1-183FE5841C33}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{30DD064F-D0D1-4295-8E73-3C9A78BBBC11}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>J</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AD41A79D-AC2C-4C43-A488-802B6F1DE357}" type="parTrans" cxnId="{05A62AA7-8EA0-4D2C-A059-2E78C6E64212}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{57B4C322-4733-44E4-A8DE-B3869C754100}" type="sibTrans" cxnId="{05A62AA7-8EA0-4D2C-A059-2E78C6E64212}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{49C39B00-E03D-412B-8AD1-1C1BCDE141FE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>K</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{433C2BC2-49B4-439C-93D5-F62E2F942E93}" type="parTrans" cxnId="{758C6733-1801-4B43-AA48-BDF0A1A5C59E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{82D21D39-958E-4323-89E3-B235F83E7F31}" type="sibTrans" cxnId="{758C6733-1801-4B43-AA48-BDF0A1A5C59E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E9299894-CB5E-4591-9AF7-AE8E18B99337}" type="pres">
+      <dgm:prSet presAssocID="{B28DAACF-65C7-4B93-9D64-7B08A9B8F458}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{97DB5773-E2D3-4959-9E46-B22007996F11}" type="pres">
+      <dgm:prSet presAssocID="{085B85D6-F892-40BE-ACD7-E95BB2954C17}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B27C06AF-42FE-4D88-B08D-CF1907BDB3E1}" type="pres">
+      <dgm:prSet presAssocID="{085B85D6-F892-40BE-ACD7-E95BB2954C17}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{97D97E2D-BC6B-40B7-9D0C-6ECB44161235}" type="pres">
+      <dgm:prSet presAssocID="{085B85D6-F892-40BE-ACD7-E95BB2954C17}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B5B7433D-5603-4B74-BEE6-2F047B2859D6}" type="pres">
+      <dgm:prSet presAssocID="{C3A2E70A-918A-41C9-96D7-DC263A5F457C}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{06B0319B-AD7E-4F6F-BD0A-3E4DF794A079}" type="pres">
+      <dgm:prSet presAssocID="{C3A2E70A-918A-41C9-96D7-DC263A5F457C}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33CB9610-2170-40E9-BFD6-7D3C6513DBAB}" type="pres">
+      <dgm:prSet presAssocID="{4ED4E661-5C68-41F1-A317-51BA2A690180}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B7EBC72A-A29D-47AB-9964-0A090AEC8022}" type="pres">
+      <dgm:prSet presAssocID="{4ED4E661-5C68-41F1-A317-51BA2A690180}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2E5C9E38-36FB-49E8-838B-C14E51B32E23}" type="pres">
+      <dgm:prSet presAssocID="{4ED4E661-5C68-41F1-A317-51BA2A690180}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D43B9F6-21AC-4ACD-978A-975ABD5CDFD0}" type="pres">
+      <dgm:prSet presAssocID="{8570E018-295C-426C-9EAD-CB2BE35BBA58}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{29E9D0AB-2609-46DC-BE8D-4150EDAA086B}" type="pres">
+      <dgm:prSet presAssocID="{8570E018-295C-426C-9EAD-CB2BE35BBA58}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C9C773FA-83B0-4F95-A9A9-5EBE487CDC53}" type="pres">
+      <dgm:prSet presAssocID="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{09AA3AB3-E9A5-4818-B0A5-86497C5930CA}" type="pres">
+      <dgm:prSet presAssocID="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C4E4EFD-ACD1-43E6-9594-133263116B46}" type="pres">
+      <dgm:prSet presAssocID="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{07962422-E37B-4BF3-BA12-D8C615D92AAE}" type="pres">
+      <dgm:prSet presAssocID="{A1BB5850-8462-4110-9690-886AF9F58656}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5C149608-0D0B-4914-A389-C6ACB48FAE71}" type="pres">
+      <dgm:prSet presAssocID="{A1BB5850-8462-4110-9690-886AF9F58656}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C0418931-ACBC-4F84-BE1E-9A3FAF2EB15A}" type="pres">
+      <dgm:prSet presAssocID="{F455BBAF-AA2E-42D5-A55A-14B9A46B8EC2}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{923664C1-2A0B-45BC-B65B-D3AB65762CA6}" type="pres">
+      <dgm:prSet presAssocID="{F455BBAF-AA2E-42D5-A55A-14B9A46B8EC2}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3E8A2C41-39A5-4AB4-AB16-0C0350C40E4E}" type="pres">
+      <dgm:prSet presAssocID="{F455BBAF-AA2E-42D5-A55A-14B9A46B8EC2}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{86ABE059-9EA5-479F-B3AC-5721DCCAB698}" type="pres">
+      <dgm:prSet presAssocID="{6AD2AE32-B519-4067-900C-A19BB33B3E27}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08FDA3DE-B998-4C12-8A73-A1A90F2BDB48}" type="pres">
+      <dgm:prSet presAssocID="{6AD2AE32-B519-4067-900C-A19BB33B3E27}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{44533CEB-B30F-4AAE-BA8B-3A93DA1B8E6F}" type="pres">
+      <dgm:prSet presAssocID="{2B4F5A84-F98E-4F79-A6AE-E64BEC5FA09D}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C7861C92-DEA1-4439-ADE3-C6A5B75E0BE5}" type="pres">
+      <dgm:prSet presAssocID="{2B4F5A84-F98E-4F79-A6AE-E64BEC5FA09D}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{16C825D3-B1D0-4D29-9601-445E1CD17B84}" type="pres">
+      <dgm:prSet presAssocID="{2B4F5A84-F98E-4F79-A6AE-E64BEC5FA09D}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{935AFE9E-8D51-4F70-9CF6-F3D79FCEBD33}" type="pres">
+      <dgm:prSet presAssocID="{83A971E5-9575-4602-9725-3DD30C326F7C}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33FD2E44-E489-4635-8C68-18BB46636B9F}" type="pres">
+      <dgm:prSet presAssocID="{83A971E5-9575-4602-9725-3DD30C326F7C}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C4D0AEEF-1F1F-415E-909F-E7499E52125A}" type="pres">
+      <dgm:prSet presAssocID="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{098A58E3-E3A2-468C-A011-729F85878030}" type="pres">
+      <dgm:prSet presAssocID="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DDE6AA83-50FD-4FD7-B7B2-4FD7D9E337BA}" type="pres">
+      <dgm:prSet presAssocID="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2AD2A9D6-B577-4180-8CD4-627CC6FF17F3}" type="pres">
+      <dgm:prSet presAssocID="{AD41A79D-AC2C-4C43-A488-802B6F1DE357}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D842F70A-39FE-4577-8ED5-2B666649E96C}" type="pres">
+      <dgm:prSet presAssocID="{AD41A79D-AC2C-4C43-A488-802B6F1DE357}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F1D363C6-8D1C-4B1D-96D7-0FEB014B649F}" type="pres">
+      <dgm:prSet presAssocID="{30DD064F-D0D1-4295-8E73-3C9A78BBBC11}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{67B8200F-3CBA-4793-A3B6-E66EE47A68A4}" type="pres">
+      <dgm:prSet presAssocID="{30DD064F-D0D1-4295-8E73-3C9A78BBBC11}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C56618FB-45E0-4175-830A-C5831BBB8D98}" type="pres">
+      <dgm:prSet presAssocID="{30DD064F-D0D1-4295-8E73-3C9A78BBBC11}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0140AB0D-175F-4C86-AA75-7F46E9460181}" type="pres">
+      <dgm:prSet presAssocID="{433C2BC2-49B4-439C-93D5-F62E2F942E93}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{79D0D716-C450-4115-8F81-0AA72EFDDF50}" type="pres">
+      <dgm:prSet presAssocID="{433C2BC2-49B4-439C-93D5-F62E2F942E93}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9601DCE5-F37F-4EB1-A273-98E992FCF11E}" type="pres">
+      <dgm:prSet presAssocID="{49C39B00-E03D-412B-8AD1-1C1BCDE141FE}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24DBEA79-4C43-4D5C-A830-F601838C8743}" type="pres">
+      <dgm:prSet presAssocID="{49C39B00-E03D-412B-8AD1-1C1BCDE141FE}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4CB9B173-99C1-4300-8C65-B808ACF66806}" type="pres">
+      <dgm:prSet presAssocID="{49C39B00-E03D-412B-8AD1-1C1BCDE141FE}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{976C4C3A-D4E7-4776-A4AD-132E6110128C}" type="pres">
+      <dgm:prSet presAssocID="{35D1A082-DC91-4CB3-8A2D-98F1E00DC914}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9CFC20A9-AC90-40EC-A5EC-08252A852B1A}" type="pres">
+      <dgm:prSet presAssocID="{35D1A082-DC91-4CB3-8A2D-98F1E00DC914}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{980731D1-4F5B-49C4-9E04-ADF5AE8FD2FD}" type="pres">
+      <dgm:prSet presAssocID="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{66EB541F-282D-4809-8361-19E52474FA98}" type="pres">
+      <dgm:prSet presAssocID="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{61D66B10-C14B-487C-BC99-831F668FF1C5}" type="pres">
+      <dgm:prSet presAssocID="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{104BFA95-6262-4FA2-9F05-80DC791461B6}" type="pres">
+      <dgm:prSet presAssocID="{25433F91-029A-441B-B6CC-93D4E0BFB8C5}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C912F959-96C3-4C0D-9A56-8CD193BB457E}" type="pres">
+      <dgm:prSet presAssocID="{25433F91-029A-441B-B6CC-93D4E0BFB8C5}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3DBBE7D8-5C3D-4741-A7C3-11D79CD30ED7}" type="pres">
+      <dgm:prSet presAssocID="{2259D3F2-8469-4E27-9CE8-988214998CD4}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C8E466C-2E1D-41ED-8991-50AFFA407D1E}" type="pres">
+      <dgm:prSet presAssocID="{2259D3F2-8469-4E27-9CE8-988214998CD4}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76E8E052-7FB3-4B4A-8BBD-70E2B5B89321}" type="pres">
+      <dgm:prSet presAssocID="{2259D3F2-8469-4E27-9CE8-988214998CD4}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{14B201E8-7D8D-452F-98C5-FE60CBFC7ACB}" type="pres">
+      <dgm:prSet presAssocID="{8225E952-52E5-412D-9515-E0F4859239EC}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EAE8F94D-3769-456D-8A03-CC506E943EEF}" type="pres">
+      <dgm:prSet presAssocID="{8225E952-52E5-412D-9515-E0F4859239EC}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{843C036F-9E42-4FF7-82BD-5C7F52647A86}" type="pres">
+      <dgm:prSet presAssocID="{17D7F13B-3C0B-4E46-B887-24D3743BB146}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0FB84DD9-823C-42A6-9875-30FB77CA822E}" type="pres">
+      <dgm:prSet presAssocID="{17D7F13B-3C0B-4E46-B887-24D3743BB146}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{85EC304E-1510-4F95-8F2F-1804570666F6}" type="pres">
+      <dgm:prSet presAssocID="{17D7F13B-3C0B-4E46-B887-24D3743BB146}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{15C924B8-9CA4-4EE5-AEF0-0A3B90E29AAE}" type="presOf" srcId="{4ED4E661-5C68-41F1-A317-51BA2A690180}" destId="{B7EBC72A-A29D-47AB-9964-0A090AEC8022}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F5097DCD-29CB-42E7-8483-58BDD9237C4E}" type="presOf" srcId="{2B4F5A84-F98E-4F79-A6AE-E64BEC5FA09D}" destId="{C7861C92-DEA1-4439-ADE3-C6A5B75E0BE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0D1CB1C-C35C-4398-A394-9656414727C6}" type="presOf" srcId="{8225E952-52E5-412D-9515-E0F4859239EC}" destId="{EAE8F94D-3769-456D-8A03-CC506E943EEF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4F5904C6-5702-4C6C-BB0B-9AB56DC7DAF8}" type="presOf" srcId="{83A971E5-9575-4602-9725-3DD30C326F7C}" destId="{935AFE9E-8D51-4F70-9CF6-F3D79FCEBD33}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4F21A057-6EAF-4BCE-91C1-0FC09B2E17B6}" type="presOf" srcId="{49C39B00-E03D-412B-8AD1-1C1BCDE141FE}" destId="{24DBEA79-4C43-4D5C-A830-F601838C8743}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{43CA9D18-4FC9-4A2E-AB20-A30192A3F548}" type="presOf" srcId="{30DD064F-D0D1-4295-8E73-3C9A78BBBC11}" destId="{67B8200F-3CBA-4793-A3B6-E66EE47A68A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EC6D4137-BE84-4F64-B93B-0C9A322A0DFD}" srcId="{4ED4E661-5C68-41F1-A317-51BA2A690180}" destId="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}" srcOrd="1" destOrd="0" parTransId="{83A971E5-9575-4602-9725-3DD30C326F7C}" sibTransId="{06C3A996-86B2-491B-8D98-3E6F9085A930}"/>
+    <dgm:cxn modelId="{1E6355A6-39F9-4650-B8B7-AE9D82C88206}" type="presOf" srcId="{C3A2E70A-918A-41C9-96D7-DC263A5F457C}" destId="{06B0319B-AD7E-4F6F-BD0A-3E4DF794A079}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{997E15B4-1E03-4C08-812F-16F37C024E6E}" srcId="{085B85D6-F892-40BE-ACD7-E95BB2954C17}" destId="{4ED4E661-5C68-41F1-A317-51BA2A690180}" srcOrd="0" destOrd="0" parTransId="{C3A2E70A-918A-41C9-96D7-DC263A5F457C}" sibTransId="{B96387F1-9AC8-46AA-95F6-B1D2297B4993}"/>
+    <dgm:cxn modelId="{206728ED-4AEA-4D36-AF17-C4571B7B508C}" type="presOf" srcId="{35D1A082-DC91-4CB3-8A2D-98F1E00DC914}" destId="{976C4C3A-D4E7-4776-A4AD-132E6110128C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3323895C-536D-4499-93A7-81B5CF9EBE8F}" type="presOf" srcId="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}" destId="{098A58E3-E3A2-468C-A011-729F85878030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{671BDA0D-288C-43E5-8521-2EEA0516B2A3}" type="presOf" srcId="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}" destId="{66EB541F-282D-4809-8361-19E52474FA98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1C5E282E-B901-445A-89A1-183FE5841C33}" srcId="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}" destId="{2B4F5A84-F98E-4F79-A6AE-E64BEC5FA09D}" srcOrd="1" destOrd="0" parTransId="{6AD2AE32-B519-4067-900C-A19BB33B3E27}" sibTransId="{E1B85290-B4C7-416F-AEF0-3AC33014B567}"/>
+    <dgm:cxn modelId="{841925FD-329A-41D5-A29C-81EF23C40B3F}" type="presOf" srcId="{085B85D6-F892-40BE-ACD7-E95BB2954C17}" destId="{B27C06AF-42FE-4D88-B08D-CF1907BDB3E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{22F32B89-4A59-4AE7-A61F-773503EAB850}" type="presOf" srcId="{433C2BC2-49B4-439C-93D5-F62E2F942E93}" destId="{79D0D716-C450-4115-8F81-0AA72EFDDF50}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{901C47C6-BA55-430D-A264-0397F95A13EC}" type="presOf" srcId="{8225E952-52E5-412D-9515-E0F4859239EC}" destId="{14B201E8-7D8D-452F-98C5-FE60CBFC7ACB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{799B0D90-4AE7-4630-80AE-9FBD9E908370}" type="presOf" srcId="{25433F91-029A-441B-B6CC-93D4E0BFB8C5}" destId="{104BFA95-6262-4FA2-9F05-80DC791461B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2B870D6A-32F7-4B5E-BE88-AA072F4D8A71}" type="presOf" srcId="{8570E018-295C-426C-9EAD-CB2BE35BBA58}" destId="{29E9D0AB-2609-46DC-BE8D-4150EDAA086B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E96B9BA6-90F5-4942-89C2-6543FF961F28}" type="presOf" srcId="{25433F91-029A-441B-B6CC-93D4E0BFB8C5}" destId="{C912F959-96C3-4C0D-9A56-8CD193BB457E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8D2ABAD0-A6F2-4650-9E62-464AF6F15F54}" type="presOf" srcId="{AD41A79D-AC2C-4C43-A488-802B6F1DE357}" destId="{D842F70A-39FE-4577-8ED5-2B666649E96C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{27DE8C81-C0A4-4A72-A10E-E86FFD2D8A57}" type="presOf" srcId="{83A971E5-9575-4602-9725-3DD30C326F7C}" destId="{33FD2E44-E489-4635-8C68-18BB46636B9F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5C670DA4-1301-4194-BE93-4D4A713FDF21}" srcId="{B28DAACF-65C7-4B93-9D64-7B08A9B8F458}" destId="{085B85D6-F892-40BE-ACD7-E95BB2954C17}" srcOrd="0" destOrd="0" parTransId="{24040A8C-59D0-4D39-B69C-924A21E11F4B}" sibTransId="{B03AF964-AB2B-4861-9307-2B6E33281784}"/>
+    <dgm:cxn modelId="{42CE3768-1F7D-469D-A474-BC707F5F38D7}" type="presOf" srcId="{F455BBAF-AA2E-42D5-A55A-14B9A46B8EC2}" destId="{923664C1-2A0B-45BC-B65B-D3AB65762CA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{05A62AA7-8EA0-4D2C-A059-2E78C6E64212}" srcId="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}" destId="{30DD064F-D0D1-4295-8E73-3C9A78BBBC11}" srcOrd="0" destOrd="0" parTransId="{AD41A79D-AC2C-4C43-A488-802B6F1DE357}" sibTransId="{57B4C322-4733-44E4-A8DE-B3869C754100}"/>
+    <dgm:cxn modelId="{FA042A50-6DCD-48BB-A885-E9FDA7E3C1C7}" type="presOf" srcId="{A1BB5850-8462-4110-9690-886AF9F58656}" destId="{5C149608-0D0B-4914-A389-C6ACB48FAE71}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{758C6733-1801-4B43-AA48-BDF0A1A5C59E}" srcId="{A120CE99-F8EA-4F72-8580-23FF0F1FD94C}" destId="{49C39B00-E03D-412B-8AD1-1C1BCDE141FE}" srcOrd="1" destOrd="0" parTransId="{433C2BC2-49B4-439C-93D5-F62E2F942E93}" sibTransId="{82D21D39-958E-4323-89E3-B235F83E7F31}"/>
+    <dgm:cxn modelId="{566C339C-80A5-4D22-ACC5-1FCAAFC1ACDA}" type="presOf" srcId="{17D7F13B-3C0B-4E46-B887-24D3743BB146}" destId="{0FB84DD9-823C-42A6-9875-30FB77CA822E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D05CBC34-C3C2-4737-A422-382A9A8B8669}" srcId="{085B85D6-F892-40BE-ACD7-E95BB2954C17}" destId="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}" srcOrd="1" destOrd="0" parTransId="{35D1A082-DC91-4CB3-8A2D-98F1E00DC914}" sibTransId="{DD707DE0-262B-4762-855A-0720094AF235}"/>
+    <dgm:cxn modelId="{5DC46A8F-7928-4EFF-BA28-445A5260ECC7}" srcId="{4ED4E661-5C68-41F1-A317-51BA2A690180}" destId="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}" srcOrd="0" destOrd="0" parTransId="{8570E018-295C-426C-9EAD-CB2BE35BBA58}" sibTransId="{B839B9F9-E36C-4D72-AC23-ECE656AF61D4}"/>
+    <dgm:cxn modelId="{A3166EAF-B22F-4C3B-9F6C-062F028466CE}" type="presOf" srcId="{6AD2AE32-B519-4067-900C-A19BB33B3E27}" destId="{86ABE059-9EA5-479F-B3AC-5721DCCAB698}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{05336AC4-F3CB-4580-BBB2-494F86AE6F4A}" srcId="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}" destId="{2259D3F2-8469-4E27-9CE8-988214998CD4}" srcOrd="0" destOrd="0" parTransId="{25433F91-029A-441B-B6CC-93D4E0BFB8C5}" sibTransId="{BC8396E4-A9DD-4707-97F4-C6E3573C524C}"/>
+    <dgm:cxn modelId="{3AEE8BB1-0A7F-44CE-B6A8-CC768AB1F1F3}" type="presOf" srcId="{A1BB5850-8462-4110-9690-886AF9F58656}" destId="{07962422-E37B-4BF3-BA12-D8C615D92AAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{649B65C2-EF6A-4469-8D46-20C8BCE4BE68}" type="presOf" srcId="{8570E018-295C-426C-9EAD-CB2BE35BBA58}" destId="{8D43B9F6-21AC-4ACD-978A-975ABD5CDFD0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{38E9568B-3804-4AC9-A27C-3A0847D7A926}" type="presOf" srcId="{C3A2E70A-918A-41C9-96D7-DC263A5F457C}" destId="{B5B7433D-5603-4B74-BEE6-2F047B2859D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DF7D88CD-F4C0-439F-AA1B-A5E921719B12}" srcId="{BB64A9D6-7BF8-4DE8-900B-A53D067C46DB}" destId="{17D7F13B-3C0B-4E46-B887-24D3743BB146}" srcOrd="1" destOrd="0" parTransId="{8225E952-52E5-412D-9515-E0F4859239EC}" sibTransId="{516B2EDE-7047-401A-A6A2-73A69FCC9465}"/>
+    <dgm:cxn modelId="{12EFC8DF-3406-421B-BFC1-E30A5BA5EE4D}" type="presOf" srcId="{35D1A082-DC91-4CB3-8A2D-98F1E00DC914}" destId="{9CFC20A9-AC90-40EC-A5EC-08252A852B1A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3E3B44EE-64EA-4472-A85E-6AEA9BA9CA7F}" srcId="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}" destId="{F455BBAF-AA2E-42D5-A55A-14B9A46B8EC2}" srcOrd="0" destOrd="0" parTransId="{A1BB5850-8462-4110-9690-886AF9F58656}" sibTransId="{F1447AC3-3B32-4782-BDFA-C361FC2E2356}"/>
+    <dgm:cxn modelId="{F59BB943-789C-4A71-82FA-D834CBDDA000}" type="presOf" srcId="{433C2BC2-49B4-439C-93D5-F62E2F942E93}" destId="{0140AB0D-175F-4C86-AA75-7F46E9460181}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{270D4389-364E-4696-A44C-204D53351554}" type="presOf" srcId="{E7A2CF49-CECA-46EB-8BC9-DA142249DC1C}" destId="{09AA3AB3-E9A5-4818-B0A5-86497C5930CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{282FE37A-2417-4EC3-BD01-3D0215A3EFAB}" type="presOf" srcId="{2259D3F2-8469-4E27-9CE8-988214998CD4}" destId="{0C8E466C-2E1D-41ED-8991-50AFFA407D1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EC436D9A-F5FC-4BCF-BBFB-ABC2B5DAB3FE}" type="presOf" srcId="{AD41A79D-AC2C-4C43-A488-802B6F1DE357}" destId="{2AD2A9D6-B577-4180-8CD4-627CC6FF17F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B8994DDE-BBAC-416D-A0F7-A40D2FA9BFE2}" type="presOf" srcId="{B28DAACF-65C7-4B93-9D64-7B08A9B8F458}" destId="{E9299894-CB5E-4591-9AF7-AE8E18B99337}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DF33378B-46FB-4170-A762-109E098F3AE2}" type="presOf" srcId="{6AD2AE32-B519-4067-900C-A19BB33B3E27}" destId="{08FDA3DE-B998-4C12-8A73-A1A90F2BDB48}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0F4170D8-FF1C-41F9-8269-5B340A05FB7D}" type="presParOf" srcId="{E9299894-CB5E-4591-9AF7-AE8E18B99337}" destId="{97DB5773-E2D3-4959-9E46-B22007996F11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B3E78181-6158-4BEC-858C-7CE9C3863594}" type="presParOf" srcId="{97DB5773-E2D3-4959-9E46-B22007996F11}" destId="{B27C06AF-42FE-4D88-B08D-CF1907BDB3E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9458B197-B338-4D40-9839-37295FD687CF}" type="presParOf" srcId="{97DB5773-E2D3-4959-9E46-B22007996F11}" destId="{97D97E2D-BC6B-40B7-9D0C-6ECB44161235}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3D15A0C6-0524-467C-8862-70096A9A3692}" type="presParOf" srcId="{97D97E2D-BC6B-40B7-9D0C-6ECB44161235}" destId="{B5B7433D-5603-4B74-BEE6-2F047B2859D6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E3A7148A-9DB6-48C0-A2A0-51111EB1EE59}" type="presParOf" srcId="{B5B7433D-5603-4B74-BEE6-2F047B2859D6}" destId="{06B0319B-AD7E-4F6F-BD0A-3E4DF794A079}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACBC80D6-14C9-437B-83AC-E62325FDA76B}" type="presParOf" srcId="{97D97E2D-BC6B-40B7-9D0C-6ECB44161235}" destId="{33CB9610-2170-40E9-BFD6-7D3C6513DBAB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BA336344-0476-4D57-9BAA-4675174D674F}" type="presParOf" srcId="{33CB9610-2170-40E9-BFD6-7D3C6513DBAB}" destId="{B7EBC72A-A29D-47AB-9964-0A090AEC8022}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BACB6CA9-5C58-4514-841A-A3F35303E30D}" type="presParOf" srcId="{33CB9610-2170-40E9-BFD6-7D3C6513DBAB}" destId="{2E5C9E38-36FB-49E8-838B-C14E51B32E23}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AE8FD75C-A9A2-4F46-8532-45177B0AECF0}" type="presParOf" srcId="{2E5C9E38-36FB-49E8-838B-C14E51B32E23}" destId="{8D43B9F6-21AC-4ACD-978A-975ABD5CDFD0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{24616C95-6FF3-4EC8-BC85-B90AEAF16F89}" type="presParOf" srcId="{8D43B9F6-21AC-4ACD-978A-975ABD5CDFD0}" destId="{29E9D0AB-2609-46DC-BE8D-4150EDAA086B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F3FAC6CF-15FB-4478-B053-4459A496366C}" type="presParOf" srcId="{2E5C9E38-36FB-49E8-838B-C14E51B32E23}" destId="{C9C773FA-83B0-4F95-A9A9-5EBE487CDC53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D9A5C4EB-D407-4C21-BE4F-459F8C9F1529}" type="presParOf" srcId="{C9C773FA-83B0-4F95-A9A9-5EBE487CDC53}" destId="{09AA3AB3-E9A5-4818-B0A5-86497C5930CA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6C4A6570-CA53-43A3-9102-AE639F88472F}" type="presParOf" srcId="{C9C773FA-83B0-4F95-A9A9-5EBE487CDC53}" destId="{0C4E4EFD-ACD1-43E6-9594-133263116B46}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1F50088E-5F33-402A-BFBA-119B9309D421}" type="presParOf" srcId="{0C4E4EFD-ACD1-43E6-9594-133263116B46}" destId="{07962422-E37B-4BF3-BA12-D8C615D92AAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4B384339-5B65-410E-8D16-7B5B843B6EB0}" type="presParOf" srcId="{07962422-E37B-4BF3-BA12-D8C615D92AAE}" destId="{5C149608-0D0B-4914-A389-C6ACB48FAE71}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{32A3F827-8283-4F71-AD84-F9DC625D8040}" type="presParOf" srcId="{0C4E4EFD-ACD1-43E6-9594-133263116B46}" destId="{C0418931-ACBC-4F84-BE1E-9A3FAF2EB15A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1DA35375-EFB7-41B1-9A7F-6366E4CCCE84}" type="presParOf" srcId="{C0418931-ACBC-4F84-BE1E-9A3FAF2EB15A}" destId="{923664C1-2A0B-45BC-B65B-D3AB65762CA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7484F8A0-A465-4F94-8FE7-34B466367BEC}" type="presParOf" srcId="{C0418931-ACBC-4F84-BE1E-9A3FAF2EB15A}" destId="{3E8A2C41-39A5-4AB4-AB16-0C0350C40E4E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CF539EF6-4CFB-4736-8CB2-EEB5F15B8511}" type="presParOf" srcId="{0C4E4EFD-ACD1-43E6-9594-133263116B46}" destId="{86ABE059-9EA5-479F-B3AC-5721DCCAB698}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{43855888-C559-4ED6-BF38-66F899E63779}" type="presParOf" srcId="{86ABE059-9EA5-479F-B3AC-5721DCCAB698}" destId="{08FDA3DE-B998-4C12-8A73-A1A90F2BDB48}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6ECB6397-A88C-4943-A134-3E157FD7BEBA}" type="presParOf" srcId="{0C4E4EFD-ACD1-43E6-9594-133263116B46}" destId="{44533CEB-B30F-4AAE-BA8B-3A93DA1B8E6F}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DCA89188-F6B1-4D93-8515-B069E90420C9}" type="presParOf" srcId="{44533CEB-B30F-4AAE-BA8B-3A93DA1B8E6F}" destId="{C7861C92-DEA1-4439-ADE3-C6A5B75E0BE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0C42E8A0-EA5F-451A-BE27-F2934ECC1409}" type="presParOf" srcId="{44533CEB-B30F-4AAE-BA8B-3A93DA1B8E6F}" destId="{16C825D3-B1D0-4D29-9601-445E1CD17B84}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4DF3CF47-595F-41AF-A44A-C531916E804B}" type="presParOf" srcId="{2E5C9E38-36FB-49E8-838B-C14E51B32E23}" destId="{935AFE9E-8D51-4F70-9CF6-F3D79FCEBD33}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E125FF1C-F051-4157-8A11-E434B831173B}" type="presParOf" srcId="{935AFE9E-8D51-4F70-9CF6-F3D79FCEBD33}" destId="{33FD2E44-E489-4635-8C68-18BB46636B9F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A33A4A4E-DE75-4F68-A817-C3871417FB0F}" type="presParOf" srcId="{2E5C9E38-36FB-49E8-838B-C14E51B32E23}" destId="{C4D0AEEF-1F1F-415E-909F-E7499E52125A}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3B178080-0065-44C9-A90C-F3D19CB1A3E1}" type="presParOf" srcId="{C4D0AEEF-1F1F-415E-909F-E7499E52125A}" destId="{098A58E3-E3A2-468C-A011-729F85878030}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0124B7A0-0202-458F-9EB6-B72DD7F8AD96}" type="presParOf" srcId="{C4D0AEEF-1F1F-415E-909F-E7499E52125A}" destId="{DDE6AA83-50FD-4FD7-B7B2-4FD7D9E337BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A8645B56-1736-482E-A8E5-0121EBFC131B}" type="presParOf" srcId="{DDE6AA83-50FD-4FD7-B7B2-4FD7D9E337BA}" destId="{2AD2A9D6-B577-4180-8CD4-627CC6FF17F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D899584E-CA7A-4CF3-8349-BB07360E0FCA}" type="presParOf" srcId="{2AD2A9D6-B577-4180-8CD4-627CC6FF17F3}" destId="{D842F70A-39FE-4577-8ED5-2B666649E96C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B3DED341-DAE7-4F60-832F-5A7A61BB1DA0}" type="presParOf" srcId="{DDE6AA83-50FD-4FD7-B7B2-4FD7D9E337BA}" destId="{F1D363C6-8D1C-4B1D-96D7-0FEB014B649F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3991DB27-7B5D-4A67-8AB7-7B26CC68863C}" type="presParOf" srcId="{F1D363C6-8D1C-4B1D-96D7-0FEB014B649F}" destId="{67B8200F-3CBA-4793-A3B6-E66EE47A68A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{74BDCDE5-D688-45B9-8A7E-E830C36F4ADB}" type="presParOf" srcId="{F1D363C6-8D1C-4B1D-96D7-0FEB014B649F}" destId="{C56618FB-45E0-4175-830A-C5831BBB8D98}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{60105832-6677-4950-BAD4-F937EE956B69}" type="presParOf" srcId="{DDE6AA83-50FD-4FD7-B7B2-4FD7D9E337BA}" destId="{0140AB0D-175F-4C86-AA75-7F46E9460181}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BE366660-5A2D-45B6-9D0A-B4CC98760B44}" type="presParOf" srcId="{0140AB0D-175F-4C86-AA75-7F46E9460181}" destId="{79D0D716-C450-4115-8F81-0AA72EFDDF50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{676B22F2-9A6D-42ED-B8F1-C3C3176BC54F}" type="presParOf" srcId="{DDE6AA83-50FD-4FD7-B7B2-4FD7D9E337BA}" destId="{9601DCE5-F37F-4EB1-A273-98E992FCF11E}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BCC9BBEF-0778-4EB0-AE0B-A18176E9D92B}" type="presParOf" srcId="{9601DCE5-F37F-4EB1-A273-98E992FCF11E}" destId="{24DBEA79-4C43-4D5C-A830-F601838C8743}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{37938036-0A79-42B3-958A-3E04CFE97AC6}" type="presParOf" srcId="{9601DCE5-F37F-4EB1-A273-98E992FCF11E}" destId="{4CB9B173-99C1-4300-8C65-B808ACF66806}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B3A6F239-D4A2-466A-9A54-F50E62E4EFFE}" type="presParOf" srcId="{97D97E2D-BC6B-40B7-9D0C-6ECB44161235}" destId="{976C4C3A-D4E7-4776-A4AD-132E6110128C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3CBB8D43-7E5A-4744-B669-B23BEB980DDA}" type="presParOf" srcId="{976C4C3A-D4E7-4776-A4AD-132E6110128C}" destId="{9CFC20A9-AC90-40EC-A5EC-08252A852B1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F0471595-594B-4044-B9F6-76E88424AFEB}" type="presParOf" srcId="{97D97E2D-BC6B-40B7-9D0C-6ECB44161235}" destId="{980731D1-4F5B-49C4-9E04-ADF5AE8FD2FD}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F8EF9EF5-5973-4F87-AA50-D9CB13F27079}" type="presParOf" srcId="{980731D1-4F5B-49C4-9E04-ADF5AE8FD2FD}" destId="{66EB541F-282D-4809-8361-19E52474FA98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DEBBE7BA-9854-40DA-81A2-60D0BA4690D6}" type="presParOf" srcId="{980731D1-4F5B-49C4-9E04-ADF5AE8FD2FD}" destId="{61D66B10-C14B-487C-BC99-831F668FF1C5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{266E9722-F5E9-47EF-9919-8AFDF3CA838E}" type="presParOf" srcId="{61D66B10-C14B-487C-BC99-831F668FF1C5}" destId="{104BFA95-6262-4FA2-9F05-80DC791461B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6D9DBF3B-FE0A-4BDF-8EF6-295C6D0B43AB}" type="presParOf" srcId="{104BFA95-6262-4FA2-9F05-80DC791461B6}" destId="{C912F959-96C3-4C0D-9A56-8CD193BB457E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B742B341-01DC-4363-95FD-39B3B9BDAA9A}" type="presParOf" srcId="{61D66B10-C14B-487C-BC99-831F668FF1C5}" destId="{3DBBE7D8-5C3D-4741-A7C3-11D79CD30ED7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F1442B76-5643-47B7-ADB7-C57D91B7FC31}" type="presParOf" srcId="{3DBBE7D8-5C3D-4741-A7C3-11D79CD30ED7}" destId="{0C8E466C-2E1D-41ED-8991-50AFFA407D1E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B7AB2A61-5AD5-457D-83A0-1208749677E6}" type="presParOf" srcId="{3DBBE7D8-5C3D-4741-A7C3-11D79CD30ED7}" destId="{76E8E052-7FB3-4B4A-8BBD-70E2B5B89321}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{90CE289D-EE0F-407E-8957-F8BB7A292B2B}" type="presParOf" srcId="{61D66B10-C14B-487C-BC99-831F668FF1C5}" destId="{14B201E8-7D8D-452F-98C5-FE60CBFC7ACB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9CEFC27D-9027-48DC-B722-DCBA83BB3BD3}" type="presParOf" srcId="{14B201E8-7D8D-452F-98C5-FE60CBFC7ACB}" destId="{EAE8F94D-3769-456D-8A03-CC506E943EEF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{067C626A-05CB-4984-A1B8-485A51E70F3A}" type="presParOf" srcId="{61D66B10-C14B-487C-BC99-831F668FF1C5}" destId="{843C036F-9E42-4FF7-82BD-5C7F52647A86}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{622752FE-86A7-4DE5-8BBA-43BDDDFC16C5}" type="presParOf" srcId="{843C036F-9E42-4FF7-82BD-5C7F52647A86}" destId="{0FB84DD9-823C-42A6-9875-30FB77CA822E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BEF9C897-0B6A-4268-ACDC-9BBACD40B844}" type="presParOf" srcId="{843C036F-9E42-4FF7-82BD-5C7F52647A86}" destId="{85EC304E-1510-4F95-8F2F-1804570666F6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{B27C06AF-42FE-4D88-B08D-CF1907BDB3E1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1428" y="1404550"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14296" y="1417418"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B5B7433D-5603-4B74-BEE6-2F047B2859D6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17945813">
+          <a:off x="694463" y="1294030"/>
+          <a:ext cx="722766" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="722766" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1037777" y="1290375"/>
+        <a:ext cx="36138" cy="36138"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B7EBC72A-A29D-47AB-9964-0A090AEC8022}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1231582" y="772998"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1244450" y="785866"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8D43B9F6-21AC-4ACD-978A-975ABD5CDFD0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="18289469">
+          <a:off x="1978265" y="725633"/>
+          <a:ext cx="615469" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="615469" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2270613" y="724661"/>
+        <a:ext cx="30773" cy="30773"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{09AA3AB3-E9A5-4818-B0A5-86497C5930CA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2461736" y="267756"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2474604" y="280624"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{07962422-E37B-4BF3-BA12-D8C615D92AAE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="3299733" y="346702"/>
+          <a:ext cx="432839" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="432839" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3505332" y="350295"/>
+        <a:ext cx="21641" cy="21641"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{923664C1-2A0B-45BC-B65B-D3AB65762CA6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3691890" y="15135"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>H</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3704758" y="28003"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{86ABE059-9EA5-479F-B3AC-5721DCCAB698}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="3299733" y="599323"/>
+          <a:ext cx="432839" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="432839" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3505332" y="602916"/>
+        <a:ext cx="21641" cy="21641"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C7861C92-DEA1-4439-ADE3-C6A5B75E0BE5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3691890" y="520377"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>I</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3704758" y="533245"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{935AFE9E-8D51-4F70-9CF6-F3D79FCEBD33}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3310531">
+          <a:off x="1978265" y="1230875"/>
+          <a:ext cx="615469" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="615469" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2270613" y="1229902"/>
+        <a:ext cx="30773" cy="30773"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{098A58E3-E3A2-468C-A011-729F85878030}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2461736" y="1278240"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2474604" y="1291108"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2AD2A9D6-B577-4180-8CD4-627CC6FF17F3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="3299733" y="1357185"/>
+          <a:ext cx="432839" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="432839" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3505332" y="1360779"/>
+        <a:ext cx="21641" cy="21641"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{67B8200F-3CBA-4793-A3B6-E66EE47A68A4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3691890" y="1025619"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>J</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3704758" y="1038487"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0140AB0D-175F-4C86-AA75-7F46E9460181}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="3299733" y="1609806"/>
+          <a:ext cx="432839" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="432839" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3505332" y="1613399"/>
+        <a:ext cx="21641" cy="21641"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{24DBEA79-4C43-4D5C-A830-F601838C8743}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3691890" y="1530860"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>K</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3704758" y="1543728"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{976C4C3A-D4E7-4776-A4AD-132E6110128C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3654187">
+          <a:off x="694463" y="1925582"/>
+          <a:ext cx="722766" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="722766" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1037777" y="1921927"/>
+        <a:ext cx="36138" cy="36138"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{66EB541F-282D-4809-8361-19E52474FA98}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1231582" y="2036102"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1244450" y="2048970"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{104BFA95-6262-4FA2-9F05-80DC791461B6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="2069580" y="2115048"/>
+          <a:ext cx="432839" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="432839" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2275179" y="2118641"/>
+        <a:ext cx="21641" cy="21641"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0C8E466C-2E1D-41ED-8991-50AFFA407D1E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2461736" y="1783481"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2474604" y="1796349"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{14B201E8-7D8D-452F-98C5-FE60CBFC7ACB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="2069580" y="2367669"/>
+          <a:ext cx="432839" cy="28828"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="14414"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="432839" y="14414"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2275179" y="2371262"/>
+        <a:ext cx="21641" cy="21641"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0FB84DD9-823C-42A6-9875-30FB77CA822E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2461736" y="2288723"/>
+          <a:ext cx="878681" cy="439340"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2700" kern="1200"/>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2474604" y="2301591"/>
+        <a:ext cx="852945" cy="413604"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58009</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="152400"/>
+          <a:ext cx="6154009" cy="3829584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>592572</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>435867</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="592572" y="257735"/>
+          <a:ext cx="6499589" cy="2708336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,29 +5104,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:XFD1048576"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -400,13 +5160,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -434,22 +5195,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="140" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -473,21 +5234,67 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G4"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
